--- a/biology/Virologie/Virus_de_Qaranfil/Virus_de_Qaranfil.xlsx
+++ b/biology/Virologie/Virus_de_Qaranfil/Virus_de_Qaranfil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus de Qaranfil, Quaranjavirus quaranfilense, est une espèce de virus du genre Quaranjavirus, de la famille des Orthomyxoviridae. Il s'agit d'un virus à ARN monocaténaire de polarité négative à génome segmenté, composé de six segments.
-Ce virus peut infecter des tiques, des oiseaux et les humains. Il doit son nom au fait qu'il a été isolé aux alentours du village de Qaranfil (en arabe : قَرَنْفيل, Qaranfīl?), près du Caire, en 1953[2]. Ce virus peut infecter des humains, comme l'atteste l'analyse de prélèvements sérologiques humains en Égypte dans les années 1960, qui montra que 8 % de la population locale présentait des anticorps contre ce virus[2].
-Le lien entre le virus de Qaranfil et une maladie humaine n'est pas clairement établi[3].
+Ce virus peut infecter des tiques, des oiseaux et les humains. Il doit son nom au fait qu'il a été isolé aux alentours du village de Qaranfil (en arabe : قَرَنْفيل, Qaranfīl?), près du Caire, en 1953. Ce virus peut infecter des humains, comme l'atteste l'analyse de prélèvements sérologiques humains en Égypte dans les années 1960, qui montra que 8 % de la population locale présentait des anticorps contre ce virus.
+Le lien entre le virus de Qaranfil et une maladie humaine n'est pas clairement établi.
 </t>
         </is>
       </c>
